--- a/FREN/FREN_modalities.xlsx
+++ b/FREN/FREN_modalities.xlsx
@@ -514,58 +514,58 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Modality</t>
+          <t>Room</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>In Person</t>
+          <t>ONLINE</t>
         </is>
       </c>
       <c r="B4" t="n">
         <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="D4" t="n">
-        <v>2.5</v>
+        <v>12.5</v>
       </c>
       <c r="E4" t="n">
         <v>2</v>
       </c>
       <c r="F4" t="n">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="G4" t="n">
-        <v>15</v>
+        <v>27.5</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Remote Course</t>
+          <t>REMOTE</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="D5" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E5" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>160</v>
+        <v>30</v>
       </c>
       <c r="G5" t="n">
-        <v>26.66666666666667</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/FREN/FREN_modalities.xlsx
+++ b/FREN/FREN_modalities.xlsx
@@ -528,10 +528,10 @@
         <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D4" t="n">
-        <v>12.5</v>
+        <v>14</v>
       </c>
       <c r="E4" t="n">
         <v>2</v>
@@ -553,10 +553,10 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D5" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
